--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -549,10 +549,10 @@
         <v>0.295151</v>
       </c>
       <c r="I2">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J2">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N2">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O2">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P2">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q2">
-        <v>0.03071174053766667</v>
+        <v>0.04412045046766667</v>
       </c>
       <c r="R2">
-        <v>0.276405664839</v>
+        <v>0.3970840542090001</v>
       </c>
       <c r="S2">
-        <v>0.003541335583171941</v>
+        <v>0.02923907847826332</v>
       </c>
       <c r="T2">
-        <v>0.003541335583171943</v>
+        <v>0.02923907847826332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.295151</v>
       </c>
       <c r="I3">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J3">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>0.737354</v>
       </c>
       <c r="O3">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P3">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q3">
         <v>0.02418119671711111</v>
@@ -641,10 +641,10 @@
         <v>0.217630770454</v>
       </c>
       <c r="S3">
-        <v>0.002788306064026554</v>
+        <v>0.01602512895982513</v>
       </c>
       <c r="T3">
-        <v>0.002788306064026555</v>
+        <v>0.01602512895982513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>0.295151</v>
       </c>
       <c r="I4">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J4">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N4">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O4">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P4">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q4">
-        <v>0.08585949148911111</v>
+        <v>0.003816072868111111</v>
       </c>
       <c r="R4">
-        <v>0.772735423402</v>
+        <v>0.034344655813</v>
       </c>
       <c r="S4">
-        <v>0.009900359505529298</v>
+        <v>0.002528950926084528</v>
       </c>
       <c r="T4">
-        <v>0.0099003595055293</v>
+        <v>0.002528950926084528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.295151</v>
       </c>
       <c r="I5">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J5">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N5">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O5">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P5">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q5">
-        <v>0.02809834240544444</v>
+        <v>0.01852033171533333</v>
       </c>
       <c r="R5">
-        <v>0.252885081649</v>
+        <v>0.166682985438</v>
       </c>
       <c r="S5">
-        <v>0.003239987641420386</v>
+        <v>0.01227361522215072</v>
       </c>
       <c r="T5">
-        <v>0.003239987641420387</v>
+        <v>0.01227361522215072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.295151</v>
       </c>
       <c r="I6">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J6">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N6">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O6">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P6">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q6">
-        <v>0.00405278397011111</v>
+        <v>0.01756309143322222</v>
       </c>
       <c r="R6">
-        <v>0.036475055731</v>
+        <v>0.158067822899</v>
       </c>
       <c r="S6">
-        <v>0.0004673218721244688</v>
+        <v>0.01163924219480112</v>
       </c>
       <c r="T6">
-        <v>0.000467321872124469</v>
+        <v>0.01163924219480112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.295151</v>
       </c>
       <c r="I7">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="J7">
-        <v>0.03547050568042931</v>
+        <v>0.07901576910072249</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N7">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O7">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P7">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q7">
-        <v>0.1347094743753333</v>
+        <v>0.011030088021</v>
       </c>
       <c r="R7">
-        <v>1.212385269378</v>
+        <v>0.09927079218899999</v>
       </c>
       <c r="S7">
-        <v>0.01553319501415666</v>
+        <v>0.007309753319597673</v>
       </c>
       <c r="T7">
-        <v>0.01553319501415666</v>
+        <v>0.007309753319597673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H8">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I8">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J8">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N8">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O8">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P8">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q8">
-        <v>0.5925641431303335</v>
+        <v>0.08649462495333334</v>
       </c>
       <c r="R8">
-        <v>5.333077288173</v>
+        <v>0.7784516245799999</v>
       </c>
       <c r="S8">
-        <v>0.06832789183034277</v>
+        <v>0.05732088181674031</v>
       </c>
       <c r="T8">
-        <v>0.0683278918303428</v>
+        <v>0.05732088181674031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H9">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I9">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J9">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.737354</v>
       </c>
       <c r="O9">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P9">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q9">
-        <v>0.4665613169975555</v>
+        <v>0.04740530794222222</v>
       </c>
       <c r="R9">
-        <v>4.199051852978</v>
+        <v>0.4266477714799999</v>
       </c>
       <c r="S9">
-        <v>0.0537986504408173</v>
+        <v>0.03141598747330692</v>
       </c>
       <c r="T9">
-        <v>0.05379865044081732</v>
+        <v>0.03141598747330692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H10">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I10">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J10">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N10">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O10">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P10">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q10">
-        <v>1.656606076801556</v>
+        <v>0.007481106562222221</v>
       </c>
       <c r="R10">
-        <v>14.909454691214</v>
+        <v>0.06732995905999999</v>
       </c>
       <c r="S10">
-        <v>0.1910213470278926</v>
+        <v>0.004957806630677278</v>
       </c>
       <c r="T10">
-        <v>0.1910213470278926</v>
+        <v>0.004957806630677278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H11">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I11">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J11">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N11">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O11">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P11">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q11">
-        <v>0.5421402336492221</v>
+        <v>0.03630763350666666</v>
       </c>
       <c r="R11">
-        <v>4.879262102843</v>
+        <v>0.3267687015599999</v>
       </c>
       <c r="S11">
-        <v>0.06251356865093539</v>
+        <v>0.02406144393832597</v>
       </c>
       <c r="T11">
-        <v>0.06251356865093542</v>
+        <v>0.02406144393832596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H12">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I12">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J12">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N12">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O12">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P12">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q12">
-        <v>0.07819597386855555</v>
+        <v>0.03443104026444445</v>
       </c>
       <c r="R12">
-        <v>0.703763764817</v>
+        <v>0.30987936238</v>
       </c>
       <c r="S12">
-        <v>0.00901668807672657</v>
+        <v>0.02281780620345459</v>
       </c>
       <c r="T12">
-        <v>0.009016688076726573</v>
+        <v>0.02281780620345459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.898252333333333</v>
+        <v>0.1928733333333333</v>
       </c>
       <c r="H13">
-        <v>5.694757</v>
+        <v>0.5786199999999999</v>
       </c>
       <c r="I13">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="J13">
-        <v>0.684381589481874</v>
+        <v>0.1549041145619023</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N13">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O13">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P13">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q13">
-        <v>2.599136449360667</v>
+        <v>0.02162360802</v>
       </c>
       <c r="R13">
-        <v>23.392228044246</v>
+        <v>0.19461247218</v>
       </c>
       <c r="S13">
-        <v>0.2997034434551593</v>
+        <v>0.01433018849939727</v>
       </c>
       <c r="T13">
-        <v>0.2997034434551594</v>
+        <v>0.01433018849939727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H14">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I14">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J14">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.312163</v>
+        <v>0.448453</v>
       </c>
       <c r="N14">
-        <v>0.9364890000000001</v>
+        <v>1.345359</v>
       </c>
       <c r="O14">
-        <v>0.09983888064854562</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="P14">
-        <v>0.09983888064854567</v>
+        <v>0.3700410539697698</v>
       </c>
       <c r="Q14">
-        <v>0.2425629294113333</v>
+        <v>0.4277601827053333</v>
       </c>
       <c r="R14">
-        <v>2.183066364702</v>
+        <v>3.849841644348</v>
       </c>
       <c r="S14">
-        <v>0.02796965323503092</v>
+        <v>0.2834810936747662</v>
       </c>
       <c r="T14">
-        <v>0.02796965323503093</v>
+        <v>0.2834810936747662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H15">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I15">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J15">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.737354</v>
       </c>
       <c r="O15">
-        <v>0.07860914330197974</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="P15">
-        <v>0.07860914330197977</v>
+        <v>0.2028092511432455</v>
       </c>
       <c r="Q15">
-        <v>0.1909843535302222</v>
+        <v>0.2344435067208888</v>
       </c>
       <c r="R15">
-        <v>1.718859181772</v>
+        <v>2.109991560488</v>
       </c>
       <c r="S15">
-        <v>0.02202218679713588</v>
+        <v>0.1553681347101134</v>
       </c>
       <c r="T15">
-        <v>0.02202218679713589</v>
+        <v>0.1553681347101135</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H16">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I16">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J16">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.8727006666666667</v>
+        <v>0.03878766666666666</v>
       </c>
       <c r="N16">
-        <v>2.618102</v>
+        <v>0.116363</v>
       </c>
       <c r="O16">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="P16">
-        <v>0.279115262543093</v>
+        <v>0.03200564842773142</v>
       </c>
       <c r="Q16">
-        <v>0.6781227442262222</v>
+        <v>0.03699790029288888</v>
       </c>
       <c r="R16">
-        <v>6.103104698036</v>
+        <v>0.3329811026359999</v>
       </c>
       <c r="S16">
-        <v>0.07819355600967115</v>
+        <v>0.02451889087096962</v>
       </c>
       <c r="T16">
-        <v>0.07819355600967116</v>
+        <v>0.02451889087096962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H17">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I17">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J17">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2855996666666666</v>
+        <v>0.188246</v>
       </c>
       <c r="N17">
-        <v>0.856799</v>
+        <v>0.564738</v>
       </c>
       <c r="O17">
-        <v>0.09134314775805506</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="P17">
-        <v>0.0913431477580551</v>
+        <v>0.1553312125141169</v>
       </c>
       <c r="Q17">
-        <v>0.2219221745868889</v>
+        <v>0.1795598275706666</v>
       </c>
       <c r="R17">
-        <v>1.997299571282</v>
+        <v>1.616038448136</v>
       </c>
       <c r="S17">
-        <v>0.02558959146569928</v>
+        <v>0.1189961533536402</v>
       </c>
       <c r="T17">
-        <v>0.02558959146569929</v>
+        <v>0.1189961533536402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H18">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I18">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J18">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.04119366666666666</v>
+        <v>0.1785163333333334</v>
       </c>
       <c r="N18">
-        <v>0.123581</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="O18">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="P18">
-        <v>0.01317494248136168</v>
+        <v>0.1473027767402279</v>
       </c>
       <c r="Q18">
-        <v>0.03200909928422222</v>
+        <v>0.1702791136697778</v>
       </c>
       <c r="R18">
-        <v>0.288081893558</v>
+        <v>1.532512023028</v>
       </c>
       <c r="S18">
-        <v>0.003690932532510639</v>
+        <v>0.1128457283419722</v>
       </c>
       <c r="T18">
-        <v>0.00369093253251064</v>
+        <v>0.1128457283419722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7770393333333333</v>
+        <v>0.9538573333333332</v>
       </c>
       <c r="H19">
-        <v>2.331118</v>
+        <v>2.861572</v>
       </c>
       <c r="I19">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373752</v>
       </c>
       <c r="J19">
-        <v>0.2801479048376967</v>
+        <v>0.7660801163373753</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.369226</v>
+        <v>0.112113</v>
       </c>
       <c r="N19">
-        <v>4.107678</v>
+        <v>0.336339</v>
       </c>
       <c r="O19">
-        <v>0.4379186232669648</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="P19">
-        <v>0.4379186232669649</v>
+        <v>0.09251005720490843</v>
       </c>
       <c r="Q19">
-        <v>1.063942458222667</v>
+        <v>0.106939807212</v>
       </c>
       <c r="R19">
-        <v>9.575482124003999</v>
+        <v>0.9624582649079999</v>
       </c>
       <c r="S19">
-        <v>0.1226819847976488</v>
+        <v>0.07087011538591348</v>
       </c>
       <c r="T19">
-        <v>0.1226819847976488</v>
+        <v>0.07087011538591349</v>
       </c>
     </row>
   </sheetData>
